--- a/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-09/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>283908</v>
+        <v>284855</v>
       </c>
       <c r="D2" t="n">
-        <v>362652703</v>
+        <v>363819700</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D4" t="n">
-        <v>404910</v>
+        <v>410910</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -648,10 +716,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="D8" t="n">
-        <v>1162181</v>
+        <v>1169681</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -724,10 +792,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>108040</v>
+        <v>108442</v>
       </c>
       <c r="D10" t="n">
-        <v>158489794</v>
+        <v>159066415</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +830,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D11" t="n">
-        <v>186328</v>
+        <v>189328</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>53282</v>
+        <v>53501</v>
       </c>
       <c r="D12" t="n">
-        <v>76974797</v>
+        <v>77289120</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -876,10 +944,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>60559</v>
+        <v>62059</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -952,10 +1020,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3547</v>
+        <v>3566</v>
       </c>
       <c r="D16" t="n">
-        <v>5040934</v>
+        <v>5069434</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1066,10 +1134,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D19" t="n">
-        <v>76549</v>
+        <v>82549</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5241</v>
+        <v>5298</v>
       </c>
       <c r="D20" t="n">
-        <v>7333900</v>
+        <v>7411344</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1180,10 +1248,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>70034</v>
+        <v>70252</v>
       </c>
       <c r="D22" t="n">
-        <v>87837004</v>
+        <v>88082794</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1370,10 +1438,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D27" t="n">
-        <v>382718</v>
+        <v>387218</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>30162</v>
+        <v>30285</v>
       </c>
       <c r="D28" t="n">
-        <v>44188003</v>
+        <v>44362021</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10399</v>
+        <v>10434</v>
       </c>
       <c r="D30" t="n">
-        <v>14993332</v>
+        <v>15040346</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1598,10 +1666,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D33" t="n">
-        <v>1962384</v>
+        <v>1967884</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1674,10 +1742,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1474</v>
+        <v>1489</v>
       </c>
       <c r="D35" t="n">
-        <v>2080414</v>
+        <v>2101993</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>88564</v>
+        <v>88769</v>
       </c>
       <c r="D36" t="n">
-        <v>112134119</v>
+        <v>112386133</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1940,10 +2008,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="D42" t="n">
-        <v>1249961</v>
+        <v>1260461</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>41450</v>
+        <v>41573</v>
       </c>
       <c r="D44" t="n">
-        <v>60830945</v>
+        <v>61007378</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2092,10 +2160,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8293</v>
+        <v>8318</v>
       </c>
       <c r="D46" t="n">
-        <v>11911589</v>
+        <v>11946304</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2168,10 +2236,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1255</v>
+        <v>1265</v>
       </c>
       <c r="D48" t="n">
-        <v>1741031</v>
+        <v>1755306</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="D51" t="n">
-        <v>2550771</v>
+        <v>2586643</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61885</v>
+        <v>62057</v>
       </c>
       <c r="D52" t="n">
-        <v>77868854</v>
+        <v>78075410</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2396,10 +2464,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="n">
-        <v>54472</v>
+        <v>54866</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2472,10 +2540,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D56" t="n">
-        <v>527909</v>
+        <v>530909</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>26071</v>
+        <v>26141</v>
       </c>
       <c r="D58" t="n">
-        <v>38260254</v>
+        <v>38362600</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2662,10 +2730,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10028</v>
+        <v>10055</v>
       </c>
       <c r="D61" t="n">
-        <v>14509361</v>
+        <v>14548975</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2768,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1234</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>1722084</v>
+        <v>4500</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2717,12 +2785,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -2738,10 +2806,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>1239</v>
       </c>
       <c r="D63" t="n">
-        <v>895</v>
+        <v>1729584</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2755,12 +2823,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Etablissement public administratif</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -2776,10 +2844,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>20400</v>
+        <v>895</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2793,12 +2861,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Etablissement public administratif</t>
         </is>
       </c>
     </row>
@@ -2814,10 +2882,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1192</v>
+        <v>14</v>
       </c>
       <c r="D65" t="n">
-        <v>1669516</v>
+        <v>20400</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2831,12 +2899,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -2852,10 +2920,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>1198</v>
       </c>
       <c r="D66" t="n">
-        <v>7500</v>
+        <v>1676403</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2869,12 +2937,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -2890,29 +2958,29 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>18036</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>23600362</v>
+        <v>7500</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Corse</t>
+          <t>Centre-Val de Loire</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2996,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>26</v>
+        <v>18097</v>
       </c>
       <c r="D68" t="n">
-        <v>34821</v>
+        <v>23679615</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2945,12 +3013,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -2966,10 +3034,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D69" t="n">
-        <v>30225</v>
+        <v>34821</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2983,12 +3051,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -3004,10 +3072,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D70" t="n">
-        <v>69573</v>
+        <v>30225</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3021,12 +3089,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -3042,10 +3110,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6577</v>
+        <v>49</v>
       </c>
       <c r="D71" t="n">
-        <v>9625129</v>
+        <v>71073</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3059,12 +3127,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3080,10 +3148,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4489</v>
+        <v>6604</v>
       </c>
       <c r="D72" t="n">
-        <v>6520454</v>
+        <v>9664800</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3097,12 +3165,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>421</v>
+        <v>4507</v>
       </c>
       <c r="D73" t="n">
-        <v>591778</v>
+        <v>6547454</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3135,12 +3203,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3156,10 +3224,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>221</v>
+        <v>424</v>
       </c>
       <c r="D74" t="n">
-        <v>309608</v>
+        <v>595705</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3173,12 +3241,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3194,29 +3262,29 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>126585</v>
+        <v>223</v>
       </c>
       <c r="D75" t="n">
-        <v>158344688</v>
+        <v>312608</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>94</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Grand Est</t>
+          <t>Corse</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>54</v>
+        <v>127002</v>
       </c>
       <c r="D76" t="n">
-        <v>62589</v>
+        <v>158855238</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3249,12 +3317,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3270,10 +3338,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D77" t="n">
-        <v>108379</v>
+        <v>67089</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3287,12 +3355,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -3308,10 +3376,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>25500</v>
+        <v>108379</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3325,12 +3393,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -3346,10 +3414,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>384</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>560355</v>
+        <v>25500</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3363,12 +3431,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -3384,10 +3452,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="D80" t="n">
-        <v>14438</v>
+        <v>560355</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3401,12 +3469,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3490,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>58852</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>86364165</v>
+        <v>14438</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3439,12 +3507,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -3460,10 +3528,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>72</v>
+        <v>59096</v>
       </c>
       <c r="D82" t="n">
-        <v>106582</v>
+        <v>86720180</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3477,12 +3545,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3498,10 +3566,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D83" t="n">
-        <v>10500</v>
+        <v>109582</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3515,12 +3583,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -3536,10 +3604,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>27059</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>39164712</v>
+        <v>10500</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3553,12 +3621,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -3574,10 +3642,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>27167</v>
       </c>
       <c r="D85" t="n">
-        <v>15070</v>
+        <v>39319763</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3591,12 +3659,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3612,10 +3680,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2437</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>3513158</v>
+        <v>15070</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3629,12 +3697,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2245</v>
+        <v>2453</v>
       </c>
       <c r="D87" t="n">
-        <v>3166239</v>
+        <v>3537158</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3667,12 +3735,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -3688,29 +3756,29 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>25311</v>
+        <v>2272</v>
       </c>
       <c r="D88" t="n">
-        <v>34357477</v>
+        <v>3204205</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Guadeloupe</t>
+          <t>Grand Est</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -3726,10 +3794,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>25479</v>
       </c>
       <c r="D89" t="n">
-        <v>8302</v>
+        <v>34575353</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3743,12 +3811,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -3764,10 +3832,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>12825</v>
+        <v>8302</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3781,12 +3849,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -3802,10 +3870,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D91" t="n">
-        <v>30756</v>
+        <v>12825</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3819,12 +3887,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3908,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6580</v>
+        <v>21</v>
       </c>
       <c r="D92" t="n">
-        <v>9697845</v>
+        <v>30756</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3857,12 +3925,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -3878,10 +3946,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>6604</v>
       </c>
       <c r="D93" t="n">
-        <v>6000</v>
+        <v>9732837</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3895,12 +3963,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -3916,10 +3984,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5761</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>8341618</v>
+        <v>6000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3933,12 +4001,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5796</v>
       </c>
       <c r="D95" t="n">
-        <v>4500</v>
+        <v>8394118</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3971,12 +4039,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -3992,10 +4060,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>574049</v>
+        <v>4500</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4009,12 +4077,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -4030,10 +4098,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="D97" t="n">
-        <v>530169</v>
+        <v>584549</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4047,12 +4115,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4068,29 +4136,29 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5898</v>
+        <v>375</v>
       </c>
       <c r="D98" t="n">
-        <v>8161242</v>
+        <v>541024</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Guyane</t>
+          <t>Guadeloupe</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4106,10 +4174,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5945</v>
       </c>
       <c r="D99" t="n">
-        <v>4500</v>
+        <v>8227502</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4123,12 +4191,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1474</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>2167218</v>
+        <v>4500</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4161,12 +4229,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>1488</v>
       </c>
       <c r="D101" t="n">
-        <v>9000</v>
+        <v>2187950</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4199,12 +4267,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4220,10 +4288,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2025</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>2953359</v>
+        <v>9000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4237,12 +4305,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4258,10 +4326,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2044</v>
       </c>
       <c r="D103" t="n">
-        <v>4500</v>
+        <v>2977669</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4275,12 +4343,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4296,10 +4364,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>104870</v>
+        <v>4500</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4313,12 +4381,12 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D105" t="n">
-        <v>146412</v>
+        <v>104870</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4351,12 +4419,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4372,29 +4440,29 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>127387</v>
+        <v>103</v>
       </c>
       <c r="D106" t="n">
-        <v>157731369</v>
+        <v>146412</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Hauts-de-France</t>
+          <t>Guyane</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4410,10 +4478,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>32</v>
+        <v>127701</v>
       </c>
       <c r="D107" t="n">
-        <v>41717</v>
+        <v>158125924</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4427,12 +4495,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D108" t="n">
-        <v>92374</v>
+        <v>41717</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4465,12 +4533,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D109" t="n">
-        <v>7395</v>
+        <v>92374</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4503,12 +4571,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -4524,10 +4592,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>891</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>1311132</v>
+        <v>7395</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4541,12 +4609,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -4562,10 +4630,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>898</v>
       </c>
       <c r="D111" t="n">
-        <v>7100</v>
+        <v>1320805</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4579,12 +4647,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -4600,10 +4668,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>49095</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>72038975</v>
+        <v>7100</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4617,12 +4685,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -4638,10 +4706,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>78</v>
+        <v>49228</v>
       </c>
       <c r="D113" t="n">
-        <v>116159</v>
+        <v>72225032</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4655,12 +4723,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -4676,10 +4744,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>24347</v>
+        <v>79</v>
       </c>
       <c r="D114" t="n">
-        <v>35285579</v>
+        <v>117659</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4693,12 +4761,12 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -4714,10 +4782,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1164</v>
+        <v>24439</v>
       </c>
       <c r="D115" t="n">
-        <v>1593166</v>
+        <v>35416499</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4731,12 +4799,12 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -4752,10 +4820,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4</v>
+        <v>1170</v>
       </c>
       <c r="D116" t="n">
-        <v>6000</v>
+        <v>1600132</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4769,12 +4837,12 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Organisme mutualiste</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -4790,10 +4858,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4807,12 +4875,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Organisme mutualiste</t>
         </is>
       </c>
     </row>
@@ -4828,10 +4896,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1815</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>2550780</v>
+        <v>4500</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4845,12 +4913,12 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -4866,10 +4934,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11</v>
+        <v>1831</v>
       </c>
       <c r="D119" t="n">
-        <v>16500</v>
+        <v>2571766</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4883,12 +4951,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -4904,29 +4972,29 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>404395</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>531257510</v>
+        <v>16500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Île-de-France</t>
+          <t>Hauts-de-France</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -4942,10 +5010,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>75</v>
+        <v>406169</v>
       </c>
       <c r="D121" t="n">
-        <v>98262</v>
+        <v>533598532</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4959,12 +5027,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -4980,10 +5048,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="D122" t="n">
-        <v>280843</v>
+        <v>98262</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4997,12 +5065,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -5018,10 +5086,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="D123" t="n">
-        <v>12000</v>
+        <v>280843</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5035,12 +5103,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -5056,10 +5124,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>31498</v>
+        <v>12000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5073,12 +5141,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -5094,10 +5162,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1210</v>
+        <v>21</v>
       </c>
       <c r="D125" t="n">
-        <v>1794516</v>
+        <v>31498</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5111,12 +5179,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -5132,10 +5200,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>22</v>
+        <v>1222</v>
       </c>
       <c r="D126" t="n">
-        <v>27773</v>
+        <v>1812516</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5149,12 +5217,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -5170,10 +5238,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>183686</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>270311019</v>
+        <v>27773</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5187,12 +5255,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -5208,10 +5276,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>331</v>
+        <v>184388</v>
       </c>
       <c r="D128" t="n">
-        <v>493290</v>
+        <v>271319580</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5225,12 +5293,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -5246,10 +5314,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="D129" t="n">
-        <v>18000</v>
+        <v>496290</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5263,12 +5331,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -5284,10 +5352,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>153775</v>
+        <v>12</v>
       </c>
       <c r="D130" t="n">
-        <v>223569561</v>
+        <v>18000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5301,12 +5369,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -5322,10 +5390,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>154385</v>
       </c>
       <c r="D131" t="n">
-        <v>4500</v>
+        <v>224448829</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5339,12 +5407,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Société européenne</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -5360,10 +5428,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D132" t="n">
-        <v>40832</v>
+        <v>4500</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5377,12 +5445,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société européenne</t>
         </is>
       </c>
     </row>
@@ -5398,10 +5466,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2342</v>
+        <v>28</v>
       </c>
       <c r="D133" t="n">
-        <v>3283611</v>
+        <v>40832</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5415,12 +5483,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -5436,10 +5504,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>2363</v>
       </c>
       <c r="D134" t="n">
-        <v>11722</v>
+        <v>3314060</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5453,12 +5521,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -5474,10 +5542,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4874</v>
+        <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>6871345</v>
+        <v>11722</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5491,12 +5559,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -5512,10 +5580,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4897</v>
       </c>
       <c r="D136" t="n">
-        <v>4500</v>
+        <v>6905845</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5529,12 +5597,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Fondation</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -5550,10 +5618,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
-        <v>22500</v>
+        <v>4500</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5567,12 +5635,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Fondation</t>
         </is>
       </c>
     </row>
@@ -5588,29 +5656,29 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>38274</v>
+        <v>15</v>
       </c>
       <c r="D138" t="n">
-        <v>51290238</v>
+        <v>22500</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>La Réunion</t>
+          <t>Île-de-France</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -5626,10 +5694,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>38423</v>
       </c>
       <c r="D139" t="n">
-        <v>31153</v>
+        <v>51487168</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5643,12 +5711,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -5664,10 +5732,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D140" t="n">
-        <v>24230</v>
+        <v>32653</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5681,12 +5749,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -5702,10 +5770,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D141" t="n">
-        <v>6000</v>
+        <v>24230</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5719,12 +5787,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -5740,10 +5808,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5757,12 +5825,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Personne morale de droit étranger - immatriculée au RCS</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -5778,10 +5846,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>482665</v>
+        <v>4500</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5795,12 +5863,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Personne morale de droit étranger - immatriculée au RCS</t>
         </is>
       </c>
     </row>
@@ -5816,10 +5884,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>12694</v>
+        <v>322</v>
       </c>
       <c r="D144" t="n">
-        <v>18655525</v>
+        <v>482665</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5833,12 +5901,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -5854,10 +5922,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3313</v>
+        <v>12742</v>
       </c>
       <c r="D145" t="n">
-        <v>4783241</v>
+        <v>18727056</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5871,12 +5939,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -5892,10 +5960,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8</v>
+        <v>3325</v>
       </c>
       <c r="D146" t="n">
-        <v>12000</v>
+        <v>4800871</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5909,12 +5977,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -5930,10 +5998,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5947,12 +6015,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Société coopérative agricole</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -5968,10 +6036,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="D148" t="n">
-        <v>488401</v>
+        <v>6000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5985,12 +6053,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société coopérative agricole</t>
         </is>
       </c>
     </row>
@@ -6006,10 +6074,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="D149" t="n">
-        <v>4500</v>
+        <v>488761</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6023,12 +6091,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Syndicat de propriétaires</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -6044,10 +6112,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>430859</v>
+        <v>4500</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6061,12 +6129,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Syndicat de propriétaires</t>
         </is>
       </c>
     </row>
@@ -6082,29 +6150,29 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>14664</v>
+        <v>312</v>
       </c>
       <c r="D151" t="n">
-        <v>19434626</v>
+        <v>436159</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Martinique</t>
+          <t>La Réunion</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -6120,10 +6188,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>14745</v>
       </c>
       <c r="D152" t="n">
-        <v>9126</v>
+        <v>19545229</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6137,12 +6205,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -6158,10 +6226,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>4500</v>
+        <v>9126</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6175,12 +6243,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -6196,10 +6264,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>55406</v>
+        <v>4500</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6213,12 +6281,12 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -6234,10 +6302,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6214</v>
+        <v>38</v>
       </c>
       <c r="D155" t="n">
-        <v>9055020</v>
+        <v>55406</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6251,12 +6319,12 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -6272,10 +6340,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>6243</v>
       </c>
       <c r="D156" t="n">
-        <v>6000</v>
+        <v>9096545</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6289,12 +6357,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -6310,10 +6378,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4168</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>6011438</v>
+        <v>6000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6327,12 +6395,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -6348,10 +6416,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>4178</v>
       </c>
       <c r="D158" t="n">
-        <v>3810</v>
+        <v>6025461</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6365,12 +6433,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -6386,10 +6454,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>305933</v>
+        <v>3810</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6403,12 +6471,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -6424,10 +6492,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D160" t="n">
-        <v>279001</v>
+        <v>308933</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6441,12 +6509,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -6462,10 +6530,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="D161" t="n">
-        <v>4350</v>
+        <v>279001</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6479,12 +6547,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -6500,29 +6568,29 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>10163</v>
+        <v>3</v>
       </c>
       <c r="D162" t="n">
-        <v>14676466</v>
+        <v>4350</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Martinique</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -6538,10 +6606,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1367</v>
+        <v>10313</v>
       </c>
       <c r="D163" t="n">
-        <v>2032078</v>
+        <v>14894421</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6555,12 +6623,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -6576,10 +6644,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>190</v>
+        <v>1373</v>
       </c>
       <c r="D164" t="n">
-        <v>280671</v>
+        <v>2041078</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6593,12 +6661,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -6614,10 +6682,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="D165" t="n">
-        <v>41690</v>
+        <v>280671</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6631,12 +6699,12 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -6652,10 +6720,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D166" t="n">
-        <v>92949</v>
+        <v>41690</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6669,12 +6737,12 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -6690,29 +6758,29 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>79153</v>
+        <v>62</v>
       </c>
       <c r="D167" t="n">
-        <v>99338763</v>
+        <v>92949</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Normandie</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -6728,10 +6796,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>26</v>
+        <v>79331</v>
       </c>
       <c r="D168" t="n">
-        <v>31729</v>
+        <v>99566980</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6745,12 +6813,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -6766,10 +6834,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D169" t="n">
-        <v>118644</v>
+        <v>31729</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6783,12 +6851,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -6804,10 +6872,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D170" t="n">
-        <v>3961</v>
+        <v>118644</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6821,12 +6889,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -6842,10 +6910,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>16330</v>
+        <v>3961</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6859,12 +6927,12 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -6880,10 +6948,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>606</v>
+        <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>896096</v>
+        <v>16330</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6897,12 +6965,12 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -6918,10 +6986,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="D173" t="n">
-        <v>6000</v>
+        <v>905555</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6935,12 +7003,12 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -6956,10 +7024,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>31535</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>46275247</v>
+        <v>6000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6973,12 +7041,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -6994,10 +7062,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>22</v>
+        <v>31629</v>
       </c>
       <c r="D175" t="n">
-        <v>33000</v>
+        <v>46411215</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7011,12 +7079,12 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -7032,10 +7100,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>11775</v>
+        <v>22</v>
       </c>
       <c r="D176" t="n">
-        <v>17023223</v>
+        <v>33000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7049,12 +7117,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -7070,10 +7138,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>9</v>
+        <v>11814</v>
       </c>
       <c r="D177" t="n">
-        <v>12419</v>
+        <v>17080292</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7087,12 +7155,12 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -7108,10 +7176,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1107</v>
+        <v>9</v>
       </c>
       <c r="D178" t="n">
-        <v>1552149</v>
+        <v>12419</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7125,12 +7193,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -7146,10 +7214,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>1112</v>
       </c>
       <c r="D179" t="n">
-        <v>4500</v>
+        <v>1559626</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7163,12 +7231,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -7184,10 +7252,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1337</v>
+        <v>3</v>
       </c>
       <c r="D180" t="n">
-        <v>1880109</v>
+        <v>4500</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7201,12 +7269,12 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -7222,10 +7290,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>1344</v>
       </c>
       <c r="D181" t="n">
-        <v>4500</v>
+        <v>1890609</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7239,12 +7307,12 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Fondation</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -7260,29 +7328,29 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>213675</v>
+        <v>3</v>
       </c>
       <c r="D182" t="n">
-        <v>266288000</v>
+        <v>4500</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Nouvelle-Aquitaine</t>
+          <t>Normandie</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Fondation</t>
         </is>
       </c>
     </row>
@@ -7298,10 +7366,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>118</v>
+        <v>214229</v>
       </c>
       <c r="D183" t="n">
-        <v>125010</v>
+        <v>266967657</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7315,12 +7383,12 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -7336,10 +7404,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D184" t="n">
-        <v>221731</v>
+        <v>129510</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7353,12 +7421,12 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -7374,10 +7442,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D185" t="n">
-        <v>5896</v>
+        <v>221731</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7391,12 +7459,12 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -7412,10 +7480,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
-        <v>13500</v>
+        <v>5896</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7429,12 +7497,12 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Paroisse hors zone concordataire</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -7450,10 +7518,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D187" t="n">
-        <v>10795</v>
+        <v>13500</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7467,12 +7535,12 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Paroisse hors zone concordataire</t>
         </is>
       </c>
     </row>
@@ -7488,10 +7556,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>814</v>
+        <v>10</v>
       </c>
       <c r="D188" t="n">
-        <v>1196784</v>
+        <v>10795</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7505,12 +7573,12 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -7526,10 +7594,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7</v>
+        <v>819</v>
       </c>
       <c r="D189" t="n">
-        <v>9883</v>
+        <v>1204284</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7543,12 +7611,12 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -7564,10 +7632,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>80513</v>
+        <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>118095075</v>
+        <v>9883</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7581,12 +7649,12 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -7602,10 +7670,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>86</v>
+        <v>80725</v>
       </c>
       <c r="D191" t="n">
-        <v>124627</v>
+        <v>118395482</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7619,12 +7687,12 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -7640,10 +7708,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D192" t="n">
-        <v>6000</v>
+        <v>124627</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7657,12 +7725,12 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -7678,10 +7746,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>29946</v>
+        <v>4</v>
       </c>
       <c r="D193" t="n">
-        <v>43118462</v>
+        <v>6000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7695,12 +7763,12 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -7716,10 +7784,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>24</v>
+        <v>30045</v>
       </c>
       <c r="D194" t="n">
-        <v>36000</v>
+        <v>43257604</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7733,12 +7801,12 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -7754,10 +7822,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D195" t="n">
-        <v>17608</v>
+        <v>36000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7771,12 +7839,12 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Société coopérative agricole</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -7792,10 +7860,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>4537</v>
+        <v>13</v>
       </c>
       <c r="D196" t="n">
-        <v>6471856</v>
+        <v>17608</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7809,12 +7877,12 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société coopérative agricole</t>
         </is>
       </c>
     </row>
@@ -7830,10 +7898,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>4554</v>
       </c>
       <c r="D197" t="n">
-        <v>4500</v>
+        <v>6490845</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7847,12 +7915,12 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Comité d'entreprise</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -7868,10 +7936,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D198" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7885,12 +7953,12 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Comité d'entreprise</t>
         </is>
       </c>
     </row>
@@ -7906,10 +7974,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3926</v>
+        <v>10</v>
       </c>
       <c r="D199" t="n">
-        <v>5450271</v>
+        <v>15000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7923,12 +7991,12 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -7944,10 +8012,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>3951</v>
       </c>
       <c r="D200" t="n">
-        <v>4500</v>
+        <v>5483475</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7961,12 +8029,12 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Fondation</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -7982,10 +8050,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D201" t="n">
-        <v>10447</v>
+        <v>4500</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7999,12 +8067,12 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Fondation</t>
         </is>
       </c>
     </row>
@@ -8020,29 +8088,29 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>233653</v>
+        <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>289673378</v>
+        <v>10447</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Occitanie</t>
+          <t>Nouvelle-Aquitaine</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -8058,10 +8126,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>141</v>
+        <v>234461</v>
       </c>
       <c r="D203" t="n">
-        <v>153134</v>
+        <v>290661409</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8075,12 +8143,12 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -8096,10 +8164,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="D204" t="n">
-        <v>325411</v>
+        <v>153134</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8113,12 +8181,12 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -8134,10 +8202,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="D205" t="n">
-        <v>18100</v>
+        <v>326911</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8151,12 +8219,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -8172,10 +8240,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D206" t="n">
-        <v>8364</v>
+        <v>18100</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8189,12 +8257,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -8210,10 +8278,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D207" t="n">
-        <v>4500</v>
+        <v>8364</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8227,12 +8295,12 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Personne morale de droit étranger - non immatriculée au RCS</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8333,12 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Personne morale de droit étranger - non immatriculée au RCS</t>
         </is>
       </c>
     </row>
@@ -8286,10 +8354,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>833127</v>
+        <v>4500</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -8303,12 +8371,12 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -8324,10 +8392,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>572</v>
       </c>
       <c r="D210" t="n">
-        <v>7500</v>
+        <v>834627</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8341,12 +8409,12 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -8362,10 +8430,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>87471</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
-        <v>128060354</v>
+        <v>7500</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8379,12 +8447,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -8400,10 +8468,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>76</v>
+        <v>87831</v>
       </c>
       <c r="D212" t="n">
-        <v>113199</v>
+        <v>128577521</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8417,12 +8485,12 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -8438,10 +8506,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="D213" t="n">
-        <v>10500</v>
+        <v>113199</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8455,12 +8523,12 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -8476,10 +8544,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>46331</v>
+        <v>7</v>
       </c>
       <c r="D214" t="n">
-        <v>67019050</v>
+        <v>10500</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8493,12 +8561,12 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -8514,10 +8582,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>26</v>
+        <v>46550</v>
       </c>
       <c r="D215" t="n">
-        <v>37575</v>
+        <v>67330010</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8531,12 +8599,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -8552,10 +8620,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D216" t="n">
-        <v>24160</v>
+        <v>37575</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8569,12 +8637,12 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Société coopérative agricole</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -8590,10 +8658,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4166</v>
+        <v>17</v>
       </c>
       <c r="D217" t="n">
-        <v>5852806</v>
+        <v>24160</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8607,12 +8675,12 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>63</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société coopérative agricole</t>
         </is>
       </c>
     </row>
@@ -8628,10 +8696,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>4178</v>
       </c>
       <c r="D218" t="n">
-        <v>7500</v>
+        <v>5869128</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8645,12 +8713,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé inscrite au registre du commerce et des sociétés</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -8666,10 +8734,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>20977</v>
+        <v>9000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8683,12 +8751,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Autre personne morale de droit privé inscrite au registre du commerce et des sociétés</t>
         </is>
       </c>
     </row>
@@ -8704,10 +8772,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4525</v>
+        <v>15</v>
       </c>
       <c r="D220" t="n">
-        <v>6256778</v>
+        <v>22212</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8721,12 +8789,12 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -8742,10 +8810,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6</v>
+        <v>4557</v>
       </c>
       <c r="D221" t="n">
-        <v>9000</v>
+        <v>6300099</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8759,12 +8827,12 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Fondation</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -8797,12 +8865,12 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Autre personne morale de droit privé</t>
+          <t>Fondation</t>
         </is>
       </c>
     </row>
@@ -8818,29 +8886,29 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>95626</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>120149734</v>
+        <v>9000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Pays de la Loire</t>
+          <t>Occitanie</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Autre personne morale de droit privé</t>
         </is>
       </c>
     </row>
@@ -8856,10 +8924,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>67</v>
+        <v>95864</v>
       </c>
       <c r="D224" t="n">
-        <v>69152</v>
+        <v>120447956</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8873,12 +8941,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -8894,10 +8962,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D225" t="n">
-        <v>94477</v>
+        <v>69152</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8911,12 +8979,12 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -8932,10 +9000,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="D226" t="n">
-        <v>11147</v>
+        <v>94477</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8949,12 +9017,12 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -8970,10 +9038,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>3655</v>
+        <v>11147</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8987,12 +9055,12 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Personne morale de droit étranger - immatriculée au RCS</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -9008,10 +9076,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D228" t="n">
-        <v>777735</v>
+        <v>3655</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9025,12 +9093,12 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Personne morale de droit étranger - immatriculée au RCS</t>
         </is>
       </c>
     </row>
@@ -9046,10 +9114,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="D229" t="n">
-        <v>2563</v>
+        <v>782235</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9063,12 +9131,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -9084,10 +9152,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>46169</v>
+        <v>4</v>
       </c>
       <c r="D230" t="n">
-        <v>67686382</v>
+        <v>2563</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9101,12 +9169,12 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -9122,10 +9190,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>27</v>
+        <v>46296</v>
       </c>
       <c r="D231" t="n">
-        <v>38211</v>
+        <v>67870444</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9139,12 +9207,12 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -9160,10 +9228,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>11148</v>
+        <v>27</v>
       </c>
       <c r="D232" t="n">
-        <v>16039617</v>
+        <v>38211</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -9177,12 +9245,12 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -9198,10 +9266,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>11190</v>
       </c>
       <c r="D233" t="n">
-        <v>10523</v>
+        <v>16098155</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -9215,12 +9283,12 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -9236,10 +9304,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1746</v>
+        <v>10</v>
       </c>
       <c r="D234" t="n">
-        <v>2503983</v>
+        <v>10523</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9253,12 +9321,12 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -9274,10 +9342,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>7</v>
+        <v>1755</v>
       </c>
       <c r="D235" t="n">
-        <v>8596</v>
+        <v>2516233</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9291,12 +9359,12 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -9312,10 +9380,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>2072</v>
+        <v>7</v>
       </c>
       <c r="D236" t="n">
-        <v>2889568</v>
+        <v>8596</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9329,12 +9397,12 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -9350,29 +9418,29 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>229057</v>
+        <v>2090</v>
       </c>
       <c r="D237" t="n">
-        <v>289655790</v>
+        <v>2914896</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
+          <t>Pays de la Loire</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -9388,10 +9456,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>152</v>
+        <v>229607</v>
       </c>
       <c r="D238" t="n">
-        <v>187801</v>
+        <v>290337519</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9405,12 +9473,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -9426,10 +9494,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D239" t="n">
-        <v>325342</v>
+        <v>187801</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9443,12 +9511,12 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -9464,10 +9532,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="D240" t="n">
-        <v>19500</v>
+        <v>328342</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9481,12 +9549,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -9502,10 +9570,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D241" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9519,12 +9587,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -9540,10 +9608,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>15980</v>
+        <v>22500</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9557,12 +9625,12 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -9578,10 +9646,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>746</v>
+        <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>1097339</v>
+        <v>15980</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9595,12 +9663,12 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -9616,10 +9684,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>9</v>
+        <v>750</v>
       </c>
       <c r="D244" t="n">
-        <v>13500</v>
+        <v>1103339</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9633,12 +9701,12 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Société en commandite</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -9654,10 +9722,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>87952</v>
+        <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>128977273</v>
+        <v>13500</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9671,12 +9739,12 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en commandite</t>
         </is>
       </c>
     </row>
@@ -9692,10 +9760,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>71</v>
+        <v>88211</v>
       </c>
       <c r="D246" t="n">
-        <v>103661</v>
+        <v>129358078</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9709,12 +9777,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -9730,10 +9798,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D247" t="n">
-        <v>6000</v>
+        <v>105161</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9747,12 +9815,12 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -9768,10 +9836,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>58285</v>
+        <v>4</v>
       </c>
       <c r="D248" t="n">
-        <v>84528767</v>
+        <v>6000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9785,12 +9853,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -9806,10 +9874,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>15</v>
+        <v>58464</v>
       </c>
       <c r="D249" t="n">
-        <v>22489</v>
+        <v>84780749</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9823,12 +9891,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -9844,10 +9912,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2154</v>
+        <v>15</v>
       </c>
       <c r="D250" t="n">
-        <v>3042241</v>
+        <v>22489</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9861,12 +9929,12 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -9882,10 +9950,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>9</v>
+        <v>2167</v>
       </c>
       <c r="D251" t="n">
-        <v>13500</v>
+        <v>3058398</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9899,12 +9967,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -9920,10 +9988,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9937,12 +10005,12 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Syndicat de propriétaires</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -9958,10 +10026,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3712</v>
+        <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>5208778</v>
+        <v>9000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -9975,10 +10043,48 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Syndicat de propriétaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>VOLET1</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>3735</v>
+      </c>
+      <c r="D254" t="n">
+        <v>5240724</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>
